--- a/osaamistutkaVastausmaaratVastausprosentit.xlsx
+++ b/osaamistutkaVastausmaaratVastausprosentit.xlsx
@@ -132,9 +132,6 @@
     <t>Viestintä</t>
   </si>
   <si>
-    <t>Sosiologia</t>
-  </si>
-  <si>
     <t>Valtio-oppi</t>
   </si>
   <si>
@@ -735,12 +732,6 @@
     <t>17 (45 %)</t>
   </si>
   <si>
-    <t>34 (62 %)</t>
-  </si>
-  <si>
-    <t>23 (44 %)</t>
-  </si>
-  <si>
     <t>5 (56 %)</t>
   </si>
   <si>
@@ -765,12 +756,6 @@
     <t>27 (57 %)</t>
   </si>
   <si>
-    <t>24 (49 %)</t>
-  </si>
-  <si>
-    <t>33 (48 %)</t>
-  </si>
-  <si>
     <t>2 (40 %)</t>
   </si>
   <si>
@@ -792,9 +777,6 @@
     <t>29 (59 %)</t>
   </si>
   <si>
-    <t>41 (57 %)</t>
-  </si>
-  <si>
     <t>6 (55 %)</t>
   </si>
   <si>
@@ -816,12 +798,6 @@
     <t>9 (39 %)</t>
   </si>
   <si>
-    <t>10 (40 %)</t>
-  </si>
-  <si>
-    <t>34 (52 %)</t>
-  </si>
-  <si>
     <t>4 (67 %)</t>
   </si>
   <si>
@@ -843,13 +819,37 @@
     <t>14 (40 %)</t>
   </si>
   <si>
-    <t>25 (46 %)</t>
-  </si>
-  <si>
     <t>4 (36 %)</t>
   </si>
   <si>
     <t>137 (41 %)</t>
+  </si>
+  <si>
+    <t>Sosiologia ja sosiaalipolitiikka</t>
+  </si>
+  <si>
+    <t>19 (41 %)</t>
+  </si>
+  <si>
+    <t>28 (53 %)</t>
+  </si>
+  <si>
+    <t>24 (52 %)</t>
+  </si>
+  <si>
+    <t>30 (42 %)</t>
+  </si>
+  <si>
+    <t>42 (53 %)</t>
+  </si>
+  <si>
+    <t>38 (53 %)</t>
+  </si>
+  <si>
+    <t>20 (44 %)</t>
+  </si>
+  <si>
+    <t>35 (48 %)</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1324,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>2005</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>2007</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
         <v>2009</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>2011</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>2003</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>2009</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A17:XFD42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,15 +1459,15 @@
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="48.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>29</v>
@@ -1478,11 +1478,11 @@
       <c r="G2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>32</v>
+      <c r="H2" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>14</v>
@@ -1496,34 +1496,34 @@
         <v>2003</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1531,34 +1531,34 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,34 +1566,34 @@
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,34 +1601,34 @@
         <v>2009</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1636,34 +1636,34 @@
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>97</v>
       </c>
       <c r="H8" s="10">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="I8" s="10">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="J8" s="10">
         <v>21</v>
@@ -1730,7 +1730,7 @@
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>2005</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>2007</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>2009</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>2011</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,13 +1811,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1825,13 +1825,13 @@
         <v>2005</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1839,13 +1839,13 @@
         <v>2007</v>
       </c>
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1853,13 +1853,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1867,13 +1867,13 @@
         <v>2011</v>
       </c>
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>59</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -2089,34 +2089,34 @@
         <v>2003</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2124,34 +2124,34 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2159,34 +2159,34 @@
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2194,34 +2194,34 @@
         <v>2009</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2229,34 +2229,34 @@
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2354,22 +2354,22 @@
         <v>2003</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2377,22 +2377,22 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,22 +2400,22 @@
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2423,22 +2423,22 @@
         <v>2009</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,22 +2446,22 @@
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,19 +2530,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,19 +2550,19 @@
         <v>2005</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,19 +2570,19 @@
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2590,19 +2590,19 @@
         <v>2009</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,19 +2610,19 @@
         <v>2011</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2690,22 +2690,22 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,22 +2713,22 @@
         <v>2005</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,22 +2736,22 @@
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,22 +2759,22 @@
         <v>2009</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,22 +2782,22 @@
         <v>2011</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2851,7 +2851,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>28</v>
@@ -2865,19 +2865,19 @@
         <v>2003</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,19 +2885,19 @@
         <v>2005</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,19 +2905,19 @@
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,19 +2925,19 @@
         <v>2009</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,19 +2945,19 @@
         <v>2011</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>2003</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3016,7 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3024,7 @@
         <v>2007</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>2009</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
